--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -1,36 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Pomodoro-Timer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C673FC1-89E9-40D9-BDE2-B059870A321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pomodoro Timer Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reminders" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Pomodoro Timer Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Settings" sheetId="2" r:id="rId2"/>
+    <sheet name="Reminders" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Log On</t>
+  </si>
+  <si>
+    <t>Log Off</t>
+  </si>
+  <si>
+    <t>Promo Time</t>
+  </si>
+  <si>
+    <t>sounds</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,80 +73,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -410,54 +375,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Pomodoro-Timer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C673FC1-89E9-40D9-BDE2-B059870A321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Pomodoro Timer Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Settings" sheetId="2" r:id="rId2"/>
-    <sheet name="Reminders" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pomodoro Timer Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reminders" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Log On</t>
-  </si>
-  <si>
-    <t>Log Off</t>
-  </si>
-  <si>
-    <t>Promo Time</t>
-  </si>
-  <si>
-    <t>sounds</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,22 +49,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -375,30 +412,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Log On</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Log Off</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Promo Time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="n">
+        <v>45482.74813817757</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -407,18 +472,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sound</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -427,12 +498,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pomodoro Timer Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -49,9 +50,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +420,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -460,9 +463,81 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45482.74813817757</v>
+        <v>45482.74813818287</v>
       </c>
       <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45482.75713064815</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45482.75814887731</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45482.75837608796</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1.877083333333333</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>45482.7629115625</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>45482.76350171297</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>45483.23901587963</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>45483.24267827323</v>
+      </c>
+      <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -479,7 +554,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -426,7 +426,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>45483.24267827323</v>
+        <v>45483.24267827546</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -578,14 +578,117 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Go to school</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>do homework</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lkasjdf;lkajdsf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>asdfasdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>asdfasdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>